--- a/medicine/Pharmacie/Classe_ATC_M05/Classe_ATC_M05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_M05/Classe_ATC_M05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M05, dénommée « Médicaments pour le traitement des désordres osseux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM05[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M05, dénommée « Médicaments pour le traitement des désordres osseux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM05. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
 </t>
         </is>
       </c>
@@ -513,29 +525,136 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M05BA Bisphosphonates
-M05BA01 Acide étidronique
+          <t>M05BA Bisphosphonates</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M05BA01 Acide étidronique
 M05BA02 Acide clodronique
 M05BA03 Acide pamidronique
 M05BA04 Acide alendronique
 M05BA05 Acide tiludronique
 M05BA06 Acide ibandronique
 M05BA07 Acide risédronique
-M05BA08 Acide zolédronique
-M05BB Bisphosphonates, associations
-M05BB01 Acide étidronique et calcium, administration séquentielle
+M05BA08 Acide zolédronique</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M05B Médicaments affectant la structure et la minéralisation osseuse</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M05BB Bisphosphonates, associations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M05BB01 Acide étidronique et calcium, administration séquentielle
 M05BB02 Acide risédronique et calcium, administration séquentielle
 M05BB03 Acide alendronique et cholécalciférol
 M05BB04 Acide risédronique, calcium et cholécalciférol, administration séquentielle
 M05BB05 Acide alendronique, calcium, cholécalciférol, administration séquentielle
 M05BB06 Acide alendronique et alfacalcidol, administration séquentielle
 M05BB07 Acide risédronique et cholécalciférol
-M05BB08 Acide zolédronique, calcium et cholécalciférol, administration séquentielle
-M05BC Protéines de la morphogenèse osseuse
-M05BC01 Dibotermine alpha
-M05BC02 Eptotermine alpha (en)
-M05BX Autres médicaments agissant sur la minéralisation
-M05BX01 Ipriflavone (en)
+M05BB08 Acide zolédronique, calcium et cholécalciférol, administration séquentielle</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M05B Médicaments affectant la structure et la minéralisation osseuse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M05BC Protéines de la morphogenèse osseuse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M05BC01 Dibotermine alpha
+M05BC02 Eptotermine alpha (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M05B Médicaments affectant la structure et la minéralisation osseuse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M05BX Autres médicaments agissant sur la minéralisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M05BX01 Ipriflavone (en)
 M05BX02 Chlorohydrate d'aluminium
 M05BX03 Strontium ranélate
 M05BX04 Dénosumab
